--- a/data/pca/factorExposure/factorExposure_2010-02-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-01.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.006495109169080791</v>
+        <v>0.01725923913512024</v>
       </c>
       <c r="C2">
-        <v>-0.01647677047358843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001036427057001212</v>
+      </c>
+      <c r="D2">
+        <v>0.006820943770789851</v>
+      </c>
+      <c r="E2">
+        <v>-0.0004666895685897576</v>
+      </c>
+      <c r="F2">
+        <v>0.009339798595539239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03276347658707045</v>
+        <v>0.09404822824312067</v>
       </c>
       <c r="C4">
-        <v>-0.1238448556890389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01592546215734611</v>
+      </c>
+      <c r="D4">
+        <v>0.08231885704364147</v>
+      </c>
+      <c r="E4">
+        <v>-0.0283693700023628</v>
+      </c>
+      <c r="F4">
+        <v>-0.03069930527095192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.04411464315965313</v>
+        <v>0.156676917229689</v>
       </c>
       <c r="C6">
-        <v>-0.1053132729389469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02518196679542488</v>
+      </c>
+      <c r="D6">
+        <v>-0.02343620367692352</v>
+      </c>
+      <c r="E6">
+        <v>-0.008401529390720856</v>
+      </c>
+      <c r="F6">
+        <v>-0.04716587426986122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009781442158688562</v>
+        <v>0.06061573695900412</v>
       </c>
       <c r="C7">
-        <v>-0.0745874662287121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0008379162475245774</v>
+      </c>
+      <c r="D7">
+        <v>0.05138106917537513</v>
+      </c>
+      <c r="E7">
+        <v>-0.01018502408629692</v>
+      </c>
+      <c r="F7">
+        <v>-0.04234366731600607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.005872967399495214</v>
+        <v>0.05855616393011909</v>
       </c>
       <c r="C8">
-        <v>-0.05765108468969207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01326583972929664</v>
+      </c>
+      <c r="D8">
+        <v>0.03151143661885302</v>
+      </c>
+      <c r="E8">
+        <v>-0.01691192620388673</v>
+      </c>
+      <c r="F8">
+        <v>0.0273492148908286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02844088678734102</v>
+        <v>0.07165705996873066</v>
       </c>
       <c r="C9">
-        <v>-0.09735364743250699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.0117977887825877</v>
+      </c>
+      <c r="D9">
+        <v>0.08437719103041036</v>
+      </c>
+      <c r="E9">
+        <v>-0.02290957339475108</v>
+      </c>
+      <c r="F9">
+        <v>-0.04668693111519939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.006972171275867802</v>
+        <v>0.09437798011317786</v>
       </c>
       <c r="C10">
-        <v>-0.03488841409364832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01862360972592837</v>
+      </c>
+      <c r="D10">
+        <v>-0.1708824392284475</v>
+      </c>
+      <c r="E10">
+        <v>0.03854091140031177</v>
+      </c>
+      <c r="F10">
+        <v>0.05780609926297048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03109425426422803</v>
+        <v>0.08783018583502804</v>
       </c>
       <c r="C11">
-        <v>-0.1067778980487954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01137286697285596</v>
+      </c>
+      <c r="D11">
+        <v>0.1164960047801228</v>
+      </c>
+      <c r="E11">
+        <v>-0.04753946644572939</v>
+      </c>
+      <c r="F11">
+        <v>-0.01965703505053162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02807219902206128</v>
+        <v>0.09239323583400562</v>
       </c>
       <c r="C12">
-        <v>-0.1146391403349854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008789151651508936</v>
+      </c>
+      <c r="D12">
+        <v>0.1292412691808</v>
+      </c>
+      <c r="E12">
+        <v>-0.04770846090784267</v>
+      </c>
+      <c r="F12">
+        <v>-0.02310556341129651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.008257048035560767</v>
+        <v>0.0430556990416797</v>
       </c>
       <c r="C13">
-        <v>-0.03870620181027455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003980055331649439</v>
+      </c>
+      <c r="D13">
+        <v>0.04849374748505045</v>
+      </c>
+      <c r="E13">
+        <v>0.01196373749022885</v>
+      </c>
+      <c r="F13">
+        <v>-0.002392423661751408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01513638128373003</v>
+        <v>0.02233400484889153</v>
       </c>
       <c r="C14">
-        <v>-0.02540178120582283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01412579600955334</v>
+      </c>
+      <c r="D14">
+        <v>0.03340774758513403</v>
+      </c>
+      <c r="E14">
+        <v>-0.01686633261380707</v>
+      </c>
+      <c r="F14">
+        <v>-0.01341253551924359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01200260708005031</v>
+        <v>0.0315772810636222</v>
       </c>
       <c r="C15">
-        <v>-0.02736288900468311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.00521836932681915</v>
+      </c>
+      <c r="D15">
+        <v>0.04494141115839587</v>
+      </c>
+      <c r="E15">
+        <v>-0.006420928234239579</v>
+      </c>
+      <c r="F15">
+        <v>-0.02223708585845945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01923639793732501</v>
+        <v>0.07315504099403321</v>
       </c>
       <c r="C16">
-        <v>-0.1135587590847653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002306946893300269</v>
+      </c>
+      <c r="D16">
+        <v>0.1261657033992508</v>
+      </c>
+      <c r="E16">
+        <v>-0.06322545022776487</v>
+      </c>
+      <c r="F16">
+        <v>-0.02309190291756746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0268713054241079</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003503297273238581</v>
+      </c>
+      <c r="D18">
+        <v>0.02078930118976327</v>
+      </c>
+      <c r="E18">
+        <v>0.0059552433860147</v>
+      </c>
+      <c r="F18">
+        <v>0.009037671876613432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01435834064502965</v>
+        <v>0.05995321352303642</v>
       </c>
       <c r="C20">
-        <v>-0.06646052609563567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0005944314309970211</v>
+      </c>
+      <c r="D20">
+        <v>0.07691850401656825</v>
+      </c>
+      <c r="E20">
+        <v>-0.05549012072353821</v>
+      </c>
+      <c r="F20">
+        <v>-0.0208449501183673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01097113819833082</v>
+        <v>0.03912452870005509</v>
       </c>
       <c r="C21">
-        <v>-0.02222129741750704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006554979142314748</v>
+      </c>
+      <c r="D21">
+        <v>0.03697696268573331</v>
+      </c>
+      <c r="E21">
+        <v>0.006398557889763633</v>
+      </c>
+      <c r="F21">
+        <v>0.02688984538321406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.002325996037597433</v>
+        <v>0.04498274593640384</v>
       </c>
       <c r="C22">
-        <v>-0.03517887220058002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0008256031251337874</v>
+      </c>
+      <c r="D22">
+        <v>0.002346412682931015</v>
+      </c>
+      <c r="E22">
+        <v>-0.02931541119251439</v>
+      </c>
+      <c r="F22">
+        <v>0.03221225014416162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.002340369924055114</v>
+        <v>0.04498957957896958</v>
       </c>
       <c r="C23">
-        <v>-0.03521317466230624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0008413492534559384</v>
+      </c>
+      <c r="D23">
+        <v>0.002482083979318574</v>
+      </c>
+      <c r="E23">
+        <v>-0.02963057966918241</v>
+      </c>
+      <c r="F23">
+        <v>0.03173663707682858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02076157446165234</v>
+        <v>0.07974234159041395</v>
       </c>
       <c r="C24">
-        <v>-0.111635532429083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002977763044786843</v>
+      </c>
+      <c r="D24">
+        <v>0.1203110130706079</v>
+      </c>
+      <c r="E24">
+        <v>-0.05109227228681817</v>
+      </c>
+      <c r="F24">
+        <v>-0.02364984952767415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0255194293426863</v>
+        <v>0.08504756597626381</v>
       </c>
       <c r="C25">
-        <v>-0.1174254552370469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005164372069750078</v>
+      </c>
+      <c r="D25">
+        <v>0.1091860349164016</v>
+      </c>
+      <c r="E25">
+        <v>-0.03373740273127521</v>
+      </c>
+      <c r="F25">
+        <v>-0.02494626427662869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02375146576247565</v>
+        <v>0.05618635151787935</v>
       </c>
       <c r="C26">
-        <v>-0.0474018575460944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01457298516308982</v>
+      </c>
+      <c r="D26">
+        <v>0.04184332077661376</v>
+      </c>
+      <c r="E26">
+        <v>-0.02684629634363541</v>
+      </c>
+      <c r="F26">
+        <v>0.01144360686279406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.006677439875459238</v>
+        <v>0.1415200138186312</v>
       </c>
       <c r="C28">
-        <v>-0.02330368488213425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01800741918390726</v>
+      </c>
+      <c r="D28">
+        <v>-0.2640037688027646</v>
+      </c>
+      <c r="E28">
+        <v>0.07070398879781635</v>
+      </c>
+      <c r="F28">
+        <v>-0.006814864843297143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01539396654005699</v>
+        <v>0.02673113834381782</v>
       </c>
       <c r="C29">
-        <v>-0.0284721488702516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008228648143493585</v>
+      </c>
+      <c r="D29">
+        <v>0.03304196792108498</v>
+      </c>
+      <c r="E29">
+        <v>-0.0109727800093044</v>
+      </c>
+      <c r="F29">
+        <v>0.01152270377233068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02143168071152885</v>
+        <v>0.06173326242139884</v>
       </c>
       <c r="C30">
-        <v>-0.124696195540662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004490810329974593</v>
+      </c>
+      <c r="D30">
+        <v>0.08671208383631733</v>
+      </c>
+      <c r="E30">
+        <v>-0.02019791365493518</v>
+      </c>
+      <c r="F30">
+        <v>-0.08085961185333278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02490515276048616</v>
+        <v>0.04936609660449077</v>
       </c>
       <c r="C31">
-        <v>-0.03467487446381675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.0152668351588018</v>
+      </c>
+      <c r="D31">
+        <v>0.02522755129112987</v>
+      </c>
+      <c r="E31">
+        <v>-0.02739748958026923</v>
+      </c>
+      <c r="F31">
+        <v>0.003026131335693135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01046437076173411</v>
+        <v>0.0492361852168522</v>
       </c>
       <c r="C32">
-        <v>-0.05936454453621652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001199120799047823</v>
+      </c>
+      <c r="D32">
+        <v>0.03610592334928381</v>
+      </c>
+      <c r="E32">
+        <v>-0.03056504915280219</v>
+      </c>
+      <c r="F32">
+        <v>-0.0002116046504948148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02687355600340037</v>
+        <v>0.08966136363924092</v>
       </c>
       <c r="C33">
-        <v>-0.1163533020333949</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008519340735946452</v>
+      </c>
+      <c r="D33">
+        <v>0.0979397747362193</v>
+      </c>
+      <c r="E33">
+        <v>-0.04570901971486698</v>
+      </c>
+      <c r="F33">
+        <v>-0.03302868999031377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03044591142388824</v>
+        <v>0.06806835162568675</v>
       </c>
       <c r="C34">
-        <v>-0.09666622339144582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01167171898858394</v>
+      </c>
+      <c r="D34">
+        <v>0.1055920465844107</v>
+      </c>
+      <c r="E34">
+        <v>-0.03529770803961929</v>
+      </c>
+      <c r="F34">
+        <v>-0.0318226308289403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003113598449477394</v>
+        <v>0.02444430029690343</v>
       </c>
       <c r="C35">
-        <v>-0.014099068124962</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002385195533800176</v>
+      </c>
+      <c r="D35">
+        <v>0.01267280579835778</v>
+      </c>
+      <c r="E35">
+        <v>-0.01126230910537142</v>
+      </c>
+      <c r="F35">
+        <v>-0.001041379996331068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01187365665144169</v>
+        <v>0.02533464551565472</v>
       </c>
       <c r="C36">
-        <v>-0.02882243781146969</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007332081090343105</v>
+      </c>
+      <c r="D36">
+        <v>0.0397708175114207</v>
+      </c>
+      <c r="E36">
+        <v>-0.01541145072595316</v>
+      </c>
+      <c r="F36">
+        <v>-0.01395779941730237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0008416426399538046</v>
+        <v>0.001565761738755988</v>
       </c>
       <c r="C38">
-        <v>-0.005530450854794594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002503521989200425</v>
+      </c>
+      <c r="D38">
+        <v>0.0004643024956113251</v>
+      </c>
+      <c r="E38">
+        <v>-0.001065499099759857</v>
+      </c>
+      <c r="F38">
+        <v>0.00071162985730915</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04467978634613913</v>
+        <v>0.106968613076603</v>
       </c>
       <c r="C39">
-        <v>-0.1708703633075482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01684407263311594</v>
+      </c>
+      <c r="D39">
+        <v>0.1530716028251124</v>
+      </c>
+      <c r="E39">
+        <v>-0.05994374350796136</v>
+      </c>
+      <c r="F39">
+        <v>-0.02834085549268144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.00973169254467347</v>
+        <v>0.03939151223070535</v>
       </c>
       <c r="C40">
-        <v>-0.01399437509297636</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007425678796116211</v>
+      </c>
+      <c r="D40">
+        <v>0.0320832075812628</v>
+      </c>
+      <c r="E40">
+        <v>-0.002530833871987096</v>
+      </c>
+      <c r="F40">
+        <v>0.01777313314011825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01419976995087553</v>
+        <v>0.02651060355320936</v>
       </c>
       <c r="C41">
-        <v>-0.02137485300083542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006608358493468997</v>
+      </c>
+      <c r="D41">
+        <v>0.01132692696869837</v>
+      </c>
+      <c r="E41">
+        <v>-0.01283287873468951</v>
+      </c>
+      <c r="F41">
+        <v>0.006810883426356719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01258391642633153</v>
+        <v>0.03988765519306118</v>
       </c>
       <c r="C43">
-        <v>-0.0257743776366211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.00683775593984657</v>
+      </c>
+      <c r="D43">
+        <v>0.02036847987853455</v>
+      </c>
+      <c r="E43">
+        <v>-0.02514072721254155</v>
+      </c>
+      <c r="F43">
+        <v>0.01196315788175975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03531829702931248</v>
+        <v>0.0772307058493784</v>
       </c>
       <c r="C44">
-        <v>-0.1315845686474793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0210635227719798</v>
+      </c>
+      <c r="D44">
+        <v>0.09765549303029729</v>
+      </c>
+      <c r="E44">
+        <v>-0.06530230556869858</v>
+      </c>
+      <c r="F44">
+        <v>-0.1506929186081324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00470705139366918</v>
+        <v>0.02412580352951357</v>
       </c>
       <c r="C46">
-        <v>-0.01108816839267099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003774975931948604</v>
+      </c>
+      <c r="D46">
+        <v>0.01250685715020482</v>
+      </c>
+      <c r="E46">
+        <v>-0.02161273359225372</v>
+      </c>
+      <c r="F46">
+        <v>0.003425581727196082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0156534094142811</v>
+        <v>0.05069950110772201</v>
       </c>
       <c r="C47">
-        <v>-0.04198000374502801</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003519993969857917</v>
+      </c>
+      <c r="D47">
+        <v>0.01286529007043028</v>
+      </c>
+      <c r="E47">
+        <v>-0.02337382993607136</v>
+      </c>
+      <c r="F47">
+        <v>0.03394181703967198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01435394187294623</v>
+        <v>0.04837680524998169</v>
       </c>
       <c r="C48">
-        <v>-0.04673544258792636</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002563757896646851</v>
+      </c>
+      <c r="D48">
+        <v>0.05102406716388512</v>
+      </c>
+      <c r="E48">
+        <v>0.006042332496171534</v>
+      </c>
+      <c r="F48">
+        <v>-0.008282189213018794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.04355882520638754</v>
+        <v>0.2025042069782285</v>
       </c>
       <c r="C49">
-        <v>-0.2049066326525078</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.0185607363931511</v>
+      </c>
+      <c r="D49">
+        <v>-0.01330772641391521</v>
+      </c>
+      <c r="E49">
+        <v>-0.02996672634340627</v>
+      </c>
+      <c r="F49">
+        <v>-0.03661742932479507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02043038757812253</v>
+        <v>0.04932873940771033</v>
       </c>
       <c r="C50">
-        <v>-0.04213648213103331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01129863609415006</v>
+      </c>
+      <c r="D50">
+        <v>0.02430881170954336</v>
+      </c>
+      <c r="E50">
+        <v>-0.02969714124589607</v>
+      </c>
+      <c r="F50">
+        <v>-0.00733402350945704</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0009811686616125687</v>
+        <v>0.001884210018027808</v>
       </c>
       <c r="C51">
-        <v>-0.005776544527344109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0005046672658635481</v>
+      </c>
+      <c r="D51">
+        <v>-0.001992768259157979</v>
+      </c>
+      <c r="E51">
+        <v>0.0001914711559674059</v>
+      </c>
+      <c r="F51">
+        <v>-0.004010663870783398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03450894708908769</v>
+        <v>0.1458449566785777</v>
       </c>
       <c r="C52">
-        <v>-0.14272745608337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01481462420281181</v>
+      </c>
+      <c r="D52">
+        <v>0.0471721999179715</v>
+      </c>
+      <c r="E52">
+        <v>-0.02116716682494106</v>
+      </c>
+      <c r="F52">
+        <v>-0.04449006563541306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03448716364191675</v>
+        <v>0.1739395446465603</v>
       </c>
       <c r="C53">
-        <v>-0.158125255103459</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01813976836232024</v>
+      </c>
+      <c r="D53">
+        <v>0.005914859603002188</v>
+      </c>
+      <c r="E53">
+        <v>-0.03147050701752546</v>
+      </c>
+      <c r="F53">
+        <v>-0.0764031608803889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01398864769217529</v>
+        <v>0.02152922020386337</v>
       </c>
       <c r="C54">
-        <v>-0.04683981893903976</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01250290906513411</v>
+      </c>
+      <c r="D54">
+        <v>0.03321634991538416</v>
+      </c>
+      <c r="E54">
+        <v>-0.01687399043707336</v>
+      </c>
+      <c r="F54">
+        <v>0.003189281987554131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02623388444191861</v>
+        <v>0.1142121338400095</v>
       </c>
       <c r="C55">
-        <v>-0.08865693474730099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01617550300813652</v>
+      </c>
+      <c r="D55">
+        <v>0.009907585021345068</v>
+      </c>
+      <c r="E55">
+        <v>-0.02800392079918678</v>
+      </c>
+      <c r="F55">
+        <v>-0.04901592861103492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03750617445494005</v>
+        <v>0.1781559368723847</v>
       </c>
       <c r="C56">
-        <v>-0.1583884806992535</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01538290914936689</v>
+      </c>
+      <c r="D56">
+        <v>0.00249512178152705</v>
+      </c>
+      <c r="E56">
+        <v>-0.03742200988661293</v>
+      </c>
+      <c r="F56">
+        <v>-0.0553074685217859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01471054487641221</v>
+        <v>0.04647718031872962</v>
       </c>
       <c r="C58">
-        <v>-0.04412238101384683</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001269131580398203</v>
+      </c>
+      <c r="D58">
+        <v>0.06737962840389014</v>
+      </c>
+      <c r="E58">
+        <v>-0.02765682240644682</v>
+      </c>
+      <c r="F58">
+        <v>0.03873384424560623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01504811060830223</v>
+        <v>0.1702655833198486</v>
       </c>
       <c r="C59">
-        <v>-0.0840218533060843</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01873661863414895</v>
+      </c>
+      <c r="D59">
+        <v>-0.2210599355087289</v>
+      </c>
+      <c r="E59">
+        <v>0.04598418638699485</v>
+      </c>
+      <c r="F59">
+        <v>0.03174683917529859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.03973845820801415</v>
+        <v>0.2341849186266497</v>
       </c>
       <c r="C60">
-        <v>-0.275741708886251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.003150125465277551</v>
+      </c>
+      <c r="D60">
+        <v>0.03970530909408387</v>
+      </c>
+      <c r="E60">
+        <v>-0.01229788558715356</v>
+      </c>
+      <c r="F60">
+        <v>0.00225076999722231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03218546479513494</v>
+        <v>0.08283533013448252</v>
       </c>
       <c r="C61">
-        <v>-0.1299342149846338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01265351198734752</v>
+      </c>
+      <c r="D61">
+        <v>0.116521122884278</v>
+      </c>
+      <c r="E61">
+        <v>-0.04014292512158326</v>
+      </c>
+      <c r="F61">
+        <v>-0.01244682192613908</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04077047679949525</v>
+        <v>0.1697605928060252</v>
       </c>
       <c r="C62">
-        <v>-0.1672549352538345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01909745382383351</v>
+      </c>
+      <c r="D62">
+        <v>0.008220005828008681</v>
+      </c>
+      <c r="E62">
+        <v>-0.0360460972853441</v>
+      </c>
+      <c r="F62">
+        <v>-0.03747278699144389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01319918547871561</v>
+        <v>0.04324058116375873</v>
       </c>
       <c r="C63">
-        <v>-0.05588126106553121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002392677461631605</v>
+      </c>
+      <c r="D63">
+        <v>0.05802514397240027</v>
+      </c>
+      <c r="E63">
+        <v>-0.01997870555740779</v>
+      </c>
+      <c r="F63">
+        <v>-0.004375437711606997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02555470451837138</v>
+        <v>0.1102720290144261</v>
       </c>
       <c r="C64">
-        <v>-0.09997441249128988</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01175391696214471</v>
+      </c>
+      <c r="D64">
+        <v>0.04126033459123036</v>
+      </c>
+      <c r="E64">
+        <v>-0.02160659864099335</v>
+      </c>
+      <c r="F64">
+        <v>-0.02580734193991887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.04576266265090212</v>
+        <v>0.1468631532723839</v>
       </c>
       <c r="C65">
-        <v>-0.1044472269764246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.0320400100204148</v>
+      </c>
+      <c r="D65">
+        <v>-0.0426739029145734</v>
+      </c>
+      <c r="E65">
+        <v>-0.001252618900902492</v>
+      </c>
+      <c r="F65">
+        <v>-0.03803104580249411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04432026026579373</v>
+        <v>0.1278079811459442</v>
       </c>
       <c r="C66">
-        <v>-0.2040843286200906</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01486336829752514</v>
+      </c>
+      <c r="D66">
+        <v>0.1413797187867949</v>
+      </c>
+      <c r="E66">
+        <v>-0.06778933355381411</v>
+      </c>
+      <c r="F66">
+        <v>-0.03128907402290235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01616514141222135</v>
+        <v>0.0630874479339437</v>
       </c>
       <c r="C67">
-        <v>-0.06882589082131335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003197859845247807</v>
+      </c>
+      <c r="D67">
+        <v>0.05538237880260249</v>
+      </c>
+      <c r="E67">
+        <v>-0.01911849526035413</v>
+      </c>
+      <c r="F67">
+        <v>0.03192336042173702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01733181995638585</v>
+        <v>0.1163821797600503</v>
       </c>
       <c r="C68">
-        <v>-0.02320897534958666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02788206631943463</v>
+      </c>
+      <c r="D68">
+        <v>-0.2591745450142809</v>
+      </c>
+      <c r="E68">
+        <v>0.08798586033868802</v>
+      </c>
+      <c r="F68">
+        <v>-0.004112406485896021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.009575323793476665</v>
+        <v>0.03919894072267859</v>
       </c>
       <c r="C69">
-        <v>-0.03318564479975557</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001147914331802721</v>
+      </c>
+      <c r="D69">
+        <v>0.007842630972272859</v>
+      </c>
+      <c r="E69">
+        <v>-0.02354956699893909</v>
+      </c>
+      <c r="F69">
+        <v>0.0008572911408855896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0002664996099614811</v>
+        <v>0.06247420039293033</v>
       </c>
       <c r="C70">
-        <v>-0.03473444348012856</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02867621591818878</v>
+      </c>
+      <c r="D70">
+        <v>0.02925108553630151</v>
+      </c>
+      <c r="E70">
+        <v>0.04104025154998876</v>
+      </c>
+      <c r="F70">
+        <v>0.1881801335961437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02151234466474273</v>
+        <v>0.1354894185882525</v>
       </c>
       <c r="C71">
-        <v>-0.02786059518354202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03270421315161038</v>
+      </c>
+      <c r="D71">
+        <v>-0.2730429968341173</v>
+      </c>
+      <c r="E71">
+        <v>0.09761431281568188</v>
+      </c>
+      <c r="F71">
+        <v>-0.0104513170656967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03867602516390212</v>
+        <v>0.1413707460433979</v>
       </c>
       <c r="C72">
-        <v>-0.1168327783653755</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02562515679763441</v>
+      </c>
+      <c r="D72">
+        <v>0.0005871196184498821</v>
+      </c>
+      <c r="E72">
+        <v>-0.03918576574701301</v>
+      </c>
+      <c r="F72">
+        <v>-0.0363527974745313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04314212832311869</v>
+        <v>0.2010140947872547</v>
       </c>
       <c r="C73">
-        <v>-0.2072933258436478</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.0127251755927529</v>
+      </c>
+      <c r="D73">
+        <v>0.01385494716588125</v>
+      </c>
+      <c r="E73">
+        <v>-0.06491039937008676</v>
+      </c>
+      <c r="F73">
+        <v>-0.03918672179001992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02468885963795998</v>
+        <v>0.09486583315269709</v>
       </c>
       <c r="C74">
-        <v>-0.1167375644289036</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01289417162438766</v>
+      </c>
+      <c r="D74">
+        <v>0.01818777445845596</v>
+      </c>
+      <c r="E74">
+        <v>-0.04525984866248307</v>
+      </c>
+      <c r="F74">
+        <v>-0.05768174909988582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04700030036874801</v>
+        <v>0.1288256871400853</v>
       </c>
       <c r="C75">
-        <v>-0.1331862228599971</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02740940269414474</v>
+      </c>
+      <c r="D75">
+        <v>0.03024653889141876</v>
+      </c>
+      <c r="E75">
+        <v>-0.05936256238921203</v>
+      </c>
+      <c r="F75">
+        <v>-0.0202752277790107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0008858775930179713</v>
+        <v>0.001899523961368509</v>
       </c>
       <c r="C76">
-        <v>-0.006738359278071794</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0005134850510758621</v>
+      </c>
+      <c r="D76">
+        <v>-0.001473099479508516</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001998202161456058</v>
+      </c>
+      <c r="F76">
+        <v>-0.002806466967388449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02506447146399134</v>
+        <v>0.08029524337288642</v>
       </c>
       <c r="C77">
-        <v>-0.1069006985908602</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008463579109634474</v>
+      </c>
+      <c r="D77">
+        <v>0.119418777080276</v>
+      </c>
+      <c r="E77">
+        <v>-0.0421017946600976</v>
+      </c>
+      <c r="F77">
+        <v>-0.02817560535866526</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06026143080428491</v>
+        <v>0.1021060086201233</v>
       </c>
       <c r="C78">
-        <v>-0.1184281777048101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03988719695784148</v>
+      </c>
+      <c r="D78">
+        <v>0.1159496613454455</v>
+      </c>
+      <c r="E78">
+        <v>-0.07945889554410777</v>
+      </c>
+      <c r="F78">
+        <v>-0.04926769071464331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04094978155677632</v>
+        <v>0.1645699785975886</v>
       </c>
       <c r="C79">
-        <v>-0.1444767375894723</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02154234395989429</v>
+      </c>
+      <c r="D79">
+        <v>0.01713335667740966</v>
+      </c>
+      <c r="E79">
+        <v>-0.04836001477484446</v>
+      </c>
+      <c r="F79">
+        <v>-0.01473835360932554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.005452384755996281</v>
+        <v>0.08120472992242918</v>
       </c>
       <c r="C80">
-        <v>-0.09663950815970405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0006935689154483847</v>
+      </c>
+      <c r="D80">
+        <v>0.0569806385100399</v>
+      </c>
+      <c r="E80">
+        <v>-0.03649182343307183</v>
+      </c>
+      <c r="F80">
+        <v>0.02619900864452</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04682153966724256</v>
+        <v>0.1230217825228154</v>
       </c>
       <c r="C81">
-        <v>-0.1542842062797057</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03138940783758223</v>
+      </c>
+      <c r="D81">
+        <v>0.01589537819570009</v>
+      </c>
+      <c r="E81">
+        <v>-0.05922382518226983</v>
+      </c>
+      <c r="F81">
+        <v>-0.01929983466209078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04038338615578349</v>
+        <v>0.1653159878275617</v>
       </c>
       <c r="C82">
-        <v>-0.1718247069147258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02376848096515134</v>
+      </c>
+      <c r="D82">
+        <v>0.00546772287347481</v>
+      </c>
+      <c r="E82">
+        <v>-0.02873961451585551</v>
+      </c>
+      <c r="F82">
+        <v>-0.08059591507776438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01708188455517448</v>
+        <v>0.06123215617877428</v>
       </c>
       <c r="C83">
-        <v>-0.0776973793835582</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003252130985621984</v>
+      </c>
+      <c r="D83">
+        <v>0.05012497786136591</v>
+      </c>
+      <c r="E83">
+        <v>-0.005970562128887346</v>
+      </c>
+      <c r="F83">
+        <v>0.03274333375202324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02471922758756029</v>
+        <v>0.0586865318962661</v>
       </c>
       <c r="C84">
-        <v>-0.0759925778728603</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01101992644583354</v>
+      </c>
+      <c r="D84">
+        <v>0.06560347210024305</v>
+      </c>
+      <c r="E84">
+        <v>-0.007313177465016051</v>
+      </c>
+      <c r="F84">
+        <v>-0.007023501228450796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04052218606907303</v>
+        <v>0.1378487014788928</v>
       </c>
       <c r="C85">
-        <v>-0.1196922007337276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02727580776376808</v>
+      </c>
+      <c r="D85">
+        <v>0.01087287426395146</v>
+      </c>
+      <c r="E85">
+        <v>-0.03944681195276108</v>
+      </c>
+      <c r="F85">
+        <v>-0.04788815334384856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.02021397423078524</v>
+        <v>0.09565159960565445</v>
       </c>
       <c r="C86">
-        <v>-0.108722469942855</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006805525487730437</v>
+      </c>
+      <c r="D86">
+        <v>0.0407044001335435</v>
+      </c>
+      <c r="E86">
+        <v>-0.2133078911149979</v>
+      </c>
+      <c r="F86">
+        <v>0.9080892378232969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04527008600185731</v>
+        <v>0.09579972321216862</v>
       </c>
       <c r="C87">
-        <v>-0.1074419682346675</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02153513148060395</v>
+      </c>
+      <c r="D87">
+        <v>0.09237114356714653</v>
+      </c>
+      <c r="E87">
+        <v>0.05339684163560238</v>
+      </c>
+      <c r="F87">
+        <v>-0.05171564751624128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01498817658422055</v>
+        <v>0.06087814246724668</v>
       </c>
       <c r="C88">
-        <v>-0.05817920375054965</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002547687770170176</v>
+      </c>
+      <c r="D88">
+        <v>0.05051264573525872</v>
+      </c>
+      <c r="E88">
+        <v>-0.0251087201240366</v>
+      </c>
+      <c r="F88">
+        <v>-0.01440767345784355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002589693704430688</v>
+        <v>0.1335870832527644</v>
       </c>
       <c r="C89">
-        <v>-0.05183051597602635</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.009945306399422208</v>
+      </c>
+      <c r="D89">
+        <v>-0.2506895905508382</v>
+      </c>
+      <c r="E89">
+        <v>0.09023859760457412</v>
+      </c>
+      <c r="F89">
+        <v>0.00681780946080785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02130786736427996</v>
+        <v>0.1477950001289185</v>
       </c>
       <c r="C90">
-        <v>-0.03189127680116655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02841592586680011</v>
+      </c>
+      <c r="D90">
+        <v>-0.2654848391949057</v>
+      </c>
+      <c r="E90">
+        <v>0.1119013556632807</v>
+      </c>
+      <c r="F90">
+        <v>0.004290348596998424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02420714791541674</v>
+        <v>0.1195162238387403</v>
       </c>
       <c r="C91">
-        <v>-0.09259143901962119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01792058442274568</v>
+      </c>
+      <c r="D91">
+        <v>-0.01116870813978603</v>
+      </c>
+      <c r="E91">
+        <v>-0.05723408231033536</v>
+      </c>
+      <c r="F91">
+        <v>0.0008202365111272535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.002215470852581786</v>
+        <v>0.1472170672291135</v>
       </c>
       <c r="C92">
-        <v>-0.04988138683121086</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02053825367121299</v>
+      </c>
+      <c r="D92">
+        <v>-0.2907361850173592</v>
+      </c>
+      <c r="E92">
+        <v>0.102344274494124</v>
+      </c>
+      <c r="F92">
+        <v>0.01644800591357535</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01609232810539743</v>
+        <v>0.1508351651650984</v>
       </c>
       <c r="C93">
-        <v>-0.03547076615336595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02458486918087474</v>
+      </c>
+      <c r="D93">
+        <v>-0.265680030499189</v>
+      </c>
+      <c r="E93">
+        <v>0.07872901759021277</v>
+      </c>
+      <c r="F93">
+        <v>-0.002949634778382022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04893914683230944</v>
+        <v>0.1321548740989555</v>
       </c>
       <c r="C94">
-        <v>-0.1581453673973723</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02439473257519767</v>
+      </c>
+      <c r="D94">
+        <v>0.04340699034439022</v>
+      </c>
+      <c r="E94">
+        <v>-0.05837527463399626</v>
+      </c>
+      <c r="F94">
+        <v>-0.0374264421737065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03917705484593792</v>
+        <v>0.1260781535111672</v>
       </c>
       <c r="C95">
-        <v>-0.1324223156308818</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004482884328735908</v>
+      </c>
+      <c r="D95">
+        <v>0.09261133991596555</v>
+      </c>
+      <c r="E95">
+        <v>-0.04641128251859799</v>
+      </c>
+      <c r="F95">
+        <v>0.01061119896571728</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9685006258160188</v>
+        <v>0.1027946526105438</v>
       </c>
       <c r="C96">
-        <v>-0.2316440035352384</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9881878372842733</v>
+      </c>
+      <c r="D96">
+        <v>-0.03832614935873423</v>
+      </c>
+      <c r="E96">
+        <v>-0.05668203601235065</v>
+      </c>
+      <c r="F96">
+        <v>-0.04356546865431968</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.01906504685640105</v>
+        <v>0.1908124075287122</v>
       </c>
       <c r="C97">
-        <v>-0.1683411697192272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008896380086160663</v>
+      </c>
+      <c r="D97">
+        <v>-0.01757464589639827</v>
+      </c>
+      <c r="E97">
+        <v>-0.0141068753822025</v>
+      </c>
+      <c r="F97">
+        <v>0.09376862916806843</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03446682584246472</v>
+        <v>0.2063052458199021</v>
       </c>
       <c r="C98">
-        <v>-0.1972548572268368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.00738173407518226</v>
+      </c>
+      <c r="D98">
+        <v>0.006599577066453012</v>
+      </c>
+      <c r="E98">
+        <v>0.08756844734048533</v>
+      </c>
+      <c r="F98">
+        <v>0.09446835454131905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003547799182008709</v>
+        <v>0.05588366471316814</v>
       </c>
       <c r="C99">
-        <v>-0.05827698062955129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004495831176930435</v>
+      </c>
+      <c r="D99">
+        <v>0.03850457558493424</v>
+      </c>
+      <c r="E99">
+        <v>-0.02336577477461818</v>
+      </c>
+      <c r="F99">
+        <v>-0.0006645249027544707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.004450279301930594</v>
+        <v>0.1264303291981619</v>
       </c>
       <c r="C100">
-        <v>-0.1348809683560042</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05310883632791424</v>
+      </c>
+      <c r="D100">
+        <v>0.3513103895584596</v>
+      </c>
+      <c r="E100">
+        <v>0.8859013624219466</v>
+      </c>
+      <c r="F100">
+        <v>0.1381376590665711</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01542552107647157</v>
+        <v>0.02665191987990253</v>
       </c>
       <c r="C101">
-        <v>-0.0284334130125139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008235928684047298</v>
+      </c>
+      <c r="D101">
+        <v>0.03275013637934628</v>
+      </c>
+      <c r="E101">
+        <v>-0.01042429395306048</v>
+      </c>
+      <c r="F101">
+        <v>0.01276432518166087</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
